--- a/Financial Modelling Prep Library/Company Financial Data/NVDA/annual/cash_flow_statements.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/NVDA/annual/cash_flow_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
   <si>
     <t>date</t>
   </si>
@@ -139,6 +139,36 @@
     <t>index</t>
   </si>
   <si>
+    <t>NVDA-FY-2003</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2004</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2005</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2006</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2007</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2008</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2009</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2010</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2011</t>
+  </si>
+  <si>
+    <t>NVDA-FY-2012</t>
+  </si>
+  <si>
     <t>NVDA-FY-2013</t>
   </si>
   <si>
@@ -178,6 +208,36 @@
     <t>0001045810</t>
   </si>
   <si>
+    <t>2003-04-25</t>
+  </si>
+  <si>
+    <t>2004-01-31</t>
+  </si>
+  <si>
+    <t>2005-03-22</t>
+  </si>
+  <si>
+    <t>2006-03-16</t>
+  </si>
+  <si>
+    <t>2007-03-16</t>
+  </si>
+  <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
+    <t>2009-01-31</t>
+  </si>
+  <si>
+    <t>2010-03-18</t>
+  </si>
+  <si>
+    <t>2011-03-16</t>
+  </si>
+  <si>
+    <t>2012-03-13</t>
+  </si>
+  <si>
     <t>2013-03-12</t>
   </si>
   <si>
@@ -208,6 +268,36 @@
     <t>2022-03-18</t>
   </si>
   <si>
+    <t>2003-04-24 21:55:57</t>
+  </si>
+  <si>
+    <t>2004-01-30 19:00:00</t>
+  </si>
+  <si>
+    <t>2005-03-22 14:33:30</t>
+  </si>
+  <si>
+    <t>2006-03-16 17:08:37</t>
+  </si>
+  <si>
+    <t>2007-03-16 14:12:51</t>
+  </si>
+  <si>
+    <t>2008-01-30 19:00:00</t>
+  </si>
+  <si>
+    <t>2009-01-30 19:00:00</t>
+  </si>
+  <si>
+    <t>2010-03-17 19:16:55</t>
+  </si>
+  <si>
+    <t>2011-03-16 16:33:51</t>
+  </si>
+  <si>
+    <t>2012-03-13 16:56:38</t>
+  </si>
+  <si>
     <t>2013-03-12 17:03:06</t>
   </si>
   <si>
@@ -238,6 +328,36 @@
     <t>2022-02-15 19:00:00</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
@@ -271,6 +391,27 @@
     <t>FY</t>
   </si>
   <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104596903001196/0001045969-03-001196-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581005000008/0001045810-05-000008-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581006000014/fy2006annualreportonform10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581007000008/fy2007annualreportonform10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581010000006/0001045810-10-000006-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581011000015/fy2011form10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581012000013/0001045810-12-000013-index.html</t>
+  </si>
+  <si>
     <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581013000008/0001045810-13-000008-index.html</t>
   </si>
   <si>
@@ -299,6 +440,18 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581022000036/0001045810-22-000036-index.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104596903001196/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581005000008/annualreport.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581010000006/fy2010form10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581012000013/nvda-2012x10k.htm</t>
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/1045810/000104581013000008/nvda-2013x10k.htm</t>
@@ -697,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -833,124 +986,124 @@
         <v>41</v>
       </c>
       <c r="B2" s="2">
-        <v>41301</v>
+        <v>37647</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J2">
-        <v>562536000</v>
+        <v>90799000</v>
       </c>
       <c r="K2">
-        <v>226235000</v>
+        <v>58216000</v>
       </c>
       <c r="L2">
-        <v>31860000</v>
+        <v>29768000</v>
       </c>
       <c r="M2">
-        <v>136662000</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-112322000</v>
+        <v>35402000</v>
       </c>
       <c r="O2">
-        <v>-118940000</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-78949000</v>
+        <v>68831000</v>
       </c>
       <c r="Q2">
-        <v>10885000</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>8567000</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-20799000</v>
+        <v>50847000</v>
       </c>
       <c r="T2">
-        <v>824172000</v>
+        <v>265032000</v>
       </c>
       <c r="U2">
-        <v>-183309000</v>
+        <v>-63123000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-3901000</v>
       </c>
       <c r="W2">
-        <v>-2378445000</v>
+        <v>-639500000</v>
       </c>
       <c r="X2">
-        <v>1817410000</v>
+        <v>422200000</v>
       </c>
       <c r="Y2">
-        <v>352000</v>
+        <v>7000000</v>
       </c>
       <c r="Z2">
-        <v>-743992000</v>
+        <v>-277324000</v>
       </c>
       <c r="AA2">
-        <v>-2049000</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>25487000</v>
       </c>
       <c r="AC2">
-        <v>-100000000</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-46866000</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>133645000</v>
+        <v>799000</v>
       </c>
       <c r="AF2">
-        <v>-15270000</v>
+        <v>26286000</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>64910000</v>
+        <v>13994000</v>
       </c>
       <c r="AI2">
-        <v>732786000</v>
+        <v>346994000</v>
       </c>
       <c r="AJ2">
-        <v>667876000</v>
+        <v>333000000</v>
       </c>
       <c r="AK2">
-        <v>824172000</v>
+        <v>265032000</v>
       </c>
       <c r="AL2">
-        <v>-183309000</v>
+        <v>-63123000</v>
       </c>
       <c r="AM2">
-        <v>640863000</v>
+        <v>201909000</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -958,124 +1111,118 @@
         <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>41665</v>
+        <v>38017</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J3">
-        <v>439990000</v>
+        <v>74419000</v>
       </c>
       <c r="K3">
-        <v>239148000</v>
+        <v>82688000</v>
       </c>
       <c r="L3">
-        <v>15430000</v>
+        <v>55135000</v>
       </c>
       <c r="M3">
-        <v>136295000</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12237000</v>
+        <v>-180768000</v>
       </c>
       <c r="O3">
-        <v>28852000</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>24651000</v>
+        <v>-85126000</v>
       </c>
       <c r="Q3">
-        <v>-20382000</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4823000</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-7954000</v>
+        <v>18204000</v>
       </c>
       <c r="T3">
-        <v>835146000</v>
+        <v>49678000</v>
       </c>
       <c r="U3">
-        <v>-255186000</v>
+        <v>-127604000</v>
       </c>
       <c r="V3">
-        <v>-17145000</v>
+        <v>-71303000</v>
       </c>
       <c r="W3">
-        <v>-3065404000</v>
+        <v>-734642000</v>
       </c>
       <c r="X3">
-        <v>2511967000</v>
+        <v>1021590000</v>
       </c>
       <c r="Y3">
-        <v>19831000</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-805937000</v>
+        <v>88041000</v>
       </c>
       <c r="AA3">
-        <v>-2239000</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>37757000</v>
       </c>
       <c r="AC3">
-        <v>-887304000</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-181336000</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1460471000</v>
+        <v>-308048000</v>
       </c>
       <c r="AF3">
-        <v>389592000</v>
+        <v>-270291000</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>418801000</v>
+        <v>-132572000</v>
       </c>
       <c r="AI3">
-        <v>1151587000</v>
+        <v>214422000</v>
       </c>
       <c r="AJ3">
-        <v>732786000</v>
+        <v>346994000</v>
       </c>
       <c r="AK3">
-        <v>835146000</v>
+        <v>49678000</v>
       </c>
       <c r="AL3">
-        <v>-255186000</v>
+        <v>-127604000</v>
       </c>
       <c r="AM3">
-        <v>579960000</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>86</v>
+        <v>-77926000</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1083,124 +1230,124 @@
         <v>43</v>
       </c>
       <c r="B4" s="2">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J4">
-        <v>630587000</v>
+        <v>100356000</v>
       </c>
       <c r="K4">
-        <v>220125000</v>
+        <v>102597000</v>
       </c>
       <c r="L4">
-        <v>82569000</v>
+        <v>12141000</v>
       </c>
       <c r="M4">
-        <v>157841000</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-202527000</v>
+        <v>-95111000</v>
       </c>
       <c r="O4">
-        <v>-49324000</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>-94984000</v>
+        <v>-81280000</v>
       </c>
       <c r="Q4">
-        <v>-26895000</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>-41073000</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>17061000</v>
+        <v>12217000</v>
       </c>
       <c r="T4">
-        <v>905656000</v>
+        <v>132200000</v>
       </c>
       <c r="U4">
-        <v>-122381000</v>
+        <v>-67261000</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>-2861809000</v>
+        <v>-313760000</v>
       </c>
       <c r="X4">
-        <v>2236780000</v>
+        <v>229068000</v>
       </c>
       <c r="Y4">
-        <v>20362000</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-727048000</v>
+        <v>-151953000</v>
       </c>
       <c r="AA4">
-        <v>-2917000</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>42502000</v>
       </c>
       <c r="AC4">
-        <v>-813600000</v>
+        <v>-24644000</v>
       </c>
       <c r="AD4">
-        <v>-186452000</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>169428000</v>
+        <v>-4015000</v>
       </c>
       <c r="AF4">
-        <v>-833541000</v>
+        <v>13843000</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>-654933000</v>
+        <v>-5910000</v>
       </c>
       <c r="AI4">
-        <v>496654000</v>
+        <v>208512000</v>
       </c>
       <c r="AJ4">
-        <v>1151587000</v>
+        <v>214422000</v>
       </c>
       <c r="AK4">
-        <v>905656000</v>
+        <v>132200000</v>
       </c>
       <c r="AL4">
-        <v>-122381000</v>
+        <v>-67261000</v>
       </c>
       <c r="AM4">
-        <v>783275000</v>
+        <v>64939000</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1208,124 +1355,124 @@
         <v>44</v>
       </c>
       <c r="B5" s="2">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J5">
-        <v>614000000</v>
+        <v>302586000</v>
       </c>
       <c r="K5">
-        <v>197000000</v>
+        <v>97977000</v>
       </c>
       <c r="L5">
-        <v>134000000</v>
+        <v>-10622000</v>
       </c>
       <c r="M5">
-        <v>204000000</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-51000000</v>
+        <v>20133000</v>
       </c>
       <c r="O5">
-        <v>-32000000</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>66000000</v>
+        <v>60726000</v>
       </c>
       <c r="Q5">
-        <v>-11000000</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>-97000000</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>77000000</v>
+        <v>36334000</v>
       </c>
       <c r="T5">
-        <v>1175000000</v>
+        <v>446408000</v>
       </c>
       <c r="U5">
-        <v>-86000000</v>
+        <v>-79600000</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-12131000</v>
       </c>
       <c r="W5">
-        <v>-3477000000</v>
+        <v>-338058000</v>
       </c>
       <c r="X5">
-        <v>3138000000</v>
+        <v>397686000</v>
       </c>
       <c r="Y5">
-        <v>25000000</v>
+        <v>-9684000</v>
       </c>
       <c r="Z5">
-        <v>-400000000</v>
+        <v>-41787000</v>
       </c>
       <c r="AA5">
-        <v>-3000000</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>127988000</v>
       </c>
       <c r="AC5">
-        <v>-587000000</v>
+        <v>-188509000</v>
       </c>
       <c r="AD5">
-        <v>-213000000</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>127000000</v>
+        <v>-856000</v>
       </c>
       <c r="AF5">
-        <v>-676000000</v>
+        <v>-61377000</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>99000000</v>
+        <v>343244000</v>
       </c>
       <c r="AI5">
-        <v>596000000</v>
+        <v>551756000</v>
       </c>
       <c r="AJ5">
-        <v>497000000</v>
+        <v>208512000</v>
       </c>
       <c r="AK5">
-        <v>1175000000</v>
+        <v>446408000</v>
       </c>
       <c r="AL5">
-        <v>-86000000</v>
+        <v>-79600000</v>
       </c>
       <c r="AM5">
-        <v>1089000000</v>
+        <v>366808000</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1333,124 +1480,124 @@
         <v>45</v>
       </c>
       <c r="B6" s="2">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J6">
-        <v>1666000000</v>
+        <v>448834000</v>
       </c>
       <c r="K6">
-        <v>187000000</v>
+        <v>107562000</v>
       </c>
       <c r="L6">
-        <v>197000000</v>
+        <v>41766000</v>
       </c>
       <c r="M6">
-        <v>247000000</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-679000000</v>
+        <v>-132870000</v>
       </c>
       <c r="O6">
-        <v>-321000000</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>-375000000</v>
+        <v>-91395000</v>
       </c>
       <c r="Q6">
-        <v>184000000</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>-14000000</v>
+        <v>7314000</v>
       </c>
       <c r="S6">
-        <v>54000000</v>
+        <v>121819000</v>
       </c>
       <c r="T6">
-        <v>1672000000</v>
+        <v>587111000</v>
       </c>
       <c r="U6">
-        <v>-176000000</v>
+        <v>-145256000</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-401800000</v>
       </c>
       <c r="W6">
-        <v>-3134000000</v>
+        <v>-220834000</v>
       </c>
       <c r="X6">
-        <v>2515000000</v>
+        <v>227067000</v>
       </c>
       <c r="Y6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-793000000</v>
+        <v>-540823000</v>
       </c>
       <c r="AA6">
-        <v>-673000000</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>221160000</v>
       </c>
       <c r="AC6">
-        <v>-739000000</v>
+        <v>-274978000</v>
       </c>
       <c r="AD6">
-        <v>-261000000</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1964000000</v>
+        <v>188000</v>
       </c>
       <c r="AF6">
-        <v>291000000</v>
+        <v>-53630000</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1170000000</v>
+        <v>-7342000</v>
       </c>
       <c r="AI6">
-        <v>1766000000</v>
+        <v>544414000</v>
       </c>
       <c r="AJ6">
-        <v>596000000</v>
+        <v>551756000</v>
       </c>
       <c r="AK6">
-        <v>1672000000</v>
+        <v>587111000</v>
       </c>
       <c r="AL6">
-        <v>-176000000</v>
+        <v>-145256000</v>
       </c>
       <c r="AM6">
-        <v>1496000000</v>
+        <v>441855000</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1458,124 +1605,118 @@
         <v>46</v>
       </c>
       <c r="B7" s="2">
-        <v>43128</v>
+        <v>39478</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J7">
-        <v>3047000000</v>
+        <v>797645000</v>
       </c>
       <c r="K7">
-        <v>199000000</v>
+        <v>133192000</v>
       </c>
       <c r="L7">
-        <v>-359000000</v>
+        <v>89516000</v>
       </c>
       <c r="M7">
-        <v>391000000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>185000000</v>
+        <v>169949000</v>
       </c>
       <c r="O7">
-        <v>-440000000</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-3690000</v>
       </c>
       <c r="Q7">
-        <v>90000000</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>481000000</v>
+        <v>-13914000</v>
       </c>
       <c r="S7">
-        <v>39000000</v>
+        <v>79894000</v>
       </c>
       <c r="T7">
-        <v>3502000000</v>
+        <v>1270196000</v>
       </c>
       <c r="U7">
-        <v>-593000000</v>
+        <v>-187745000</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-75542000</v>
       </c>
       <c r="W7">
-        <v>-72000000</v>
+        <v>-1251870000</v>
       </c>
       <c r="X7">
-        <v>1941000000</v>
+        <v>753839000</v>
       </c>
       <c r="Y7">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1278000000</v>
+        <v>-761318000</v>
       </c>
       <c r="AA7">
-        <v>-812000000</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>225969000</v>
       </c>
       <c r="AC7">
-        <v>-909000000</v>
+        <v>-552512000</v>
       </c>
       <c r="AD7">
-        <v>-341000000</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>-482000000</v>
+        <v>220000</v>
       </c>
       <c r="AF7">
-        <v>-2544000000</v>
+        <v>-326323000</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>2236000000</v>
+        <v>182555000</v>
       </c>
       <c r="AI7">
-        <v>4002000000</v>
+        <v>726969000</v>
       </c>
       <c r="AJ7">
-        <v>1766000000</v>
+        <v>544414000</v>
       </c>
       <c r="AK7">
-        <v>3502000000</v>
+        <v>1270196000</v>
       </c>
       <c r="AL7">
-        <v>-593000000</v>
+        <v>-187745000</v>
       </c>
       <c r="AM7">
-        <v>2909000000</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>98</v>
+        <v>1082451000</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1583,124 +1724,118 @@
         <v>47</v>
       </c>
       <c r="B8" s="2">
-        <v>43492</v>
+        <v>39844</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J8">
-        <v>4141000000</v>
+        <v>-30041000</v>
       </c>
       <c r="K8">
-        <v>262000000</v>
+        <v>185023000</v>
       </c>
       <c r="L8">
-        <v>-315000000</v>
+        <v>-23277000</v>
       </c>
       <c r="M8">
-        <v>557000000</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-857000000</v>
+        <v>-33333000</v>
       </c>
       <c r="O8">
-        <v>-149000000</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>-776000000</v>
+        <v>-177295000</v>
       </c>
       <c r="Q8">
-        <v>-135000000</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2000000</v>
+        <v>-2108000</v>
       </c>
       <c r="S8">
-        <v>-45000000</v>
+        <v>150988000</v>
       </c>
       <c r="T8">
-        <v>3743000000</v>
+        <v>249360000</v>
       </c>
       <c r="U8">
-        <v>-600000000</v>
+        <v>-407670000</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-27948000</v>
       </c>
       <c r="W8">
-        <v>-11157000000</v>
+        <v>-999953000</v>
       </c>
       <c r="X8">
-        <v>7660000000</v>
+        <v>1226646000</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>-442000</v>
       </c>
       <c r="Z8">
-        <v>-4097000000</v>
+        <v>-209367000</v>
       </c>
       <c r="AA8">
-        <v>-16000000</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>73547000</v>
       </c>
       <c r="AC8">
-        <v>-1579000000</v>
+        <v>-423636000</v>
       </c>
       <c r="AD8">
-        <v>-371000000</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>-900000000</v>
+        <v>815000</v>
       </c>
       <c r="AF8">
-        <v>-2866000000</v>
+        <v>-349274000</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>-3220000000</v>
+        <v>-309281000</v>
       </c>
       <c r="AI8">
-        <v>782000000</v>
+        <v>417688000</v>
       </c>
       <c r="AJ8">
-        <v>4002000000</v>
+        <v>726969000</v>
       </c>
       <c r="AK8">
-        <v>3743000000</v>
+        <v>249360000</v>
       </c>
       <c r="AL8">
-        <v>-600000000</v>
+        <v>-407670000</v>
       </c>
       <c r="AM8">
-        <v>3143000000</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>99</v>
+        <v>-158310000</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1708,124 +1843,124 @@
         <v>48</v>
       </c>
       <c r="B9" s="2">
-        <v>43856</v>
+        <v>40209</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J9">
-        <v>2796000000</v>
+        <v>-67987000</v>
       </c>
       <c r="K9">
-        <v>381000000</v>
+        <v>196664000</v>
       </c>
       <c r="L9">
-        <v>18000000</v>
+        <v>-21147000</v>
       </c>
       <c r="M9">
-        <v>844000000</v>
+        <v>242826000</v>
       </c>
       <c r="N9">
-        <v>717000000</v>
+        <v>136415000</v>
       </c>
       <c r="O9">
-        <v>-233000000</v>
+        <v>-56741000</v>
       </c>
       <c r="P9">
-        <v>597000000</v>
+        <v>204656000</v>
       </c>
       <c r="Q9">
-        <v>194000000</v>
+        <v>119366000</v>
       </c>
       <c r="R9">
-        <v>28000000</v>
+        <v>3857000</v>
       </c>
       <c r="S9">
-        <v>5000000</v>
+        <v>1036000</v>
       </c>
       <c r="T9">
-        <v>4761000000</v>
+        <v>487807000</v>
       </c>
       <c r="U9">
-        <v>-489000000</v>
+        <v>-77601000</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>-1475000000</v>
+        <v>-1193948000</v>
       </c>
       <c r="X9">
-        <v>8109000000</v>
+        <v>752434000</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>-218000</v>
       </c>
       <c r="Z9">
-        <v>6145000000</v>
+        <v>-519333000</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>138029000</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>-390000000</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>-402000000</v>
+        <v>-76970000</v>
       </c>
       <c r="AF9">
-        <v>-792000000</v>
+        <v>61059000</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>10114000000</v>
+        <v>29533000</v>
       </c>
       <c r="AI9">
-        <v>10896000000</v>
+        <v>447221000</v>
       </c>
       <c r="AJ9">
-        <v>782000000</v>
+        <v>417688000</v>
       </c>
       <c r="AK9">
-        <v>4761000000</v>
+        <v>487807000</v>
       </c>
       <c r="AL9">
-        <v>-489000000</v>
+        <v>-77601000</v>
       </c>
       <c r="AM9">
-        <v>4272000000</v>
+        <v>410206000</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1833,124 +1968,124 @@
         <v>49</v>
       </c>
       <c r="B10" s="2">
-        <v>44227</v>
+        <v>40573</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J10">
-        <v>4332000000</v>
+        <v>253146000</v>
       </c>
       <c r="K10">
-        <v>1098000000</v>
+        <v>186989000</v>
       </c>
       <c r="L10">
-        <v>-282000000</v>
+        <v>-2646000</v>
       </c>
       <c r="M10">
-        <v>1397000000</v>
+        <v>100353000</v>
       </c>
       <c r="N10">
-        <v>-703000000</v>
+        <v>151699000</v>
       </c>
       <c r="O10">
-        <v>-550000000</v>
+        <v>26341000</v>
       </c>
       <c r="P10">
-        <v>-524000000</v>
+        <v>-14128000</v>
       </c>
       <c r="Q10">
-        <v>363000000</v>
+        <v>-69786000</v>
       </c>
       <c r="R10">
-        <v>163000000</v>
+        <v>4331000</v>
       </c>
       <c r="S10">
-        <v>-20000000</v>
+        <v>-13744000</v>
       </c>
       <c r="T10">
-        <v>5822000000</v>
+        <v>675797000</v>
       </c>
       <c r="U10">
-        <v>-1128000000</v>
+        <v>-97890000</v>
       </c>
       <c r="V10">
-        <v>-8524000000</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-19342000000</v>
+        <v>-1719700000</v>
       </c>
       <c r="X10">
-        <v>9319000000</v>
+        <v>1170075000</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>-2163000</v>
       </c>
       <c r="Z10">
-        <v>-19675000000</v>
+        <v>-649678000</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>177276000</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>-395000000</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>4199000000</v>
+        <v>14745000</v>
       </c>
       <c r="AF10">
-        <v>3804000000</v>
+        <v>192021000</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>-10049000000</v>
+        <v>218140000</v>
       </c>
       <c r="AI10">
-        <v>847000000</v>
+        <v>665361000</v>
       </c>
       <c r="AJ10">
-        <v>10896000000</v>
+        <v>447221000</v>
       </c>
       <c r="AK10">
-        <v>5822000000</v>
+        <v>675797000</v>
       </c>
       <c r="AL10">
-        <v>-1128000000</v>
+        <v>-97890000</v>
       </c>
       <c r="AM10">
-        <v>4694000000</v>
+        <v>577907000</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1958,148 +2093,1412 @@
         <v>50</v>
       </c>
       <c r="B11" s="2">
+        <v>40937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11">
+        <v>581090000</v>
+      </c>
+      <c r="K11">
+        <v>204205000</v>
+      </c>
+      <c r="L11">
+        <v>19056000</v>
+      </c>
+      <c r="M11">
+        <v>136354000</v>
+      </c>
+      <c r="N11">
+        <v>2149000</v>
+      </c>
+      <c r="O11">
+        <v>26236000</v>
+      </c>
+      <c r="P11">
+        <v>18884000</v>
+      </c>
+      <c r="Q11">
+        <v>35708000</v>
+      </c>
+      <c r="R11">
+        <v>-70694000</v>
+      </c>
+      <c r="S11">
+        <v>-33698000</v>
+      </c>
+      <c r="T11">
+        <v>909156000</v>
+      </c>
+      <c r="U11">
+        <v>-138735000</v>
+      </c>
+      <c r="V11">
+        <v>-348884000</v>
+      </c>
+      <c r="W11">
+        <v>-1964898000</v>
+      </c>
+      <c r="X11">
+        <v>1310743000</v>
+      </c>
+      <c r="Y11">
+        <v>-1590000</v>
+      </c>
+      <c r="Z11">
+        <v>-1143364000</v>
+      </c>
+      <c r="AA11">
+        <v>-11927000</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>248650000</v>
+      </c>
+      <c r="AF11">
+        <v>236723000</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>2515000</v>
+      </c>
+      <c r="AI11">
+        <v>667876000</v>
+      </c>
+      <c r="AJ11">
+        <v>665361000</v>
+      </c>
+      <c r="AK11">
+        <v>909156000</v>
+      </c>
+      <c r="AL11">
+        <v>-138735000</v>
+      </c>
+      <c r="AM11">
+        <v>770421000</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12">
+        <v>562536000</v>
+      </c>
+      <c r="K12">
+        <v>226235000</v>
+      </c>
+      <c r="L12">
+        <v>31860000</v>
+      </c>
+      <c r="M12">
+        <v>136662000</v>
+      </c>
+      <c r="N12">
+        <v>-112322000</v>
+      </c>
+      <c r="O12">
+        <v>-118940000</v>
+      </c>
+      <c r="P12">
+        <v>-78949000</v>
+      </c>
+      <c r="Q12">
+        <v>10885000</v>
+      </c>
+      <c r="R12">
+        <v>8567000</v>
+      </c>
+      <c r="S12">
+        <v>-20799000</v>
+      </c>
+      <c r="T12">
+        <v>824172000</v>
+      </c>
+      <c r="U12">
+        <v>-183309000</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>-2378445000</v>
+      </c>
+      <c r="X12">
+        <v>1817410000</v>
+      </c>
+      <c r="Y12">
+        <v>352000</v>
+      </c>
+      <c r="Z12">
+        <v>-743992000</v>
+      </c>
+      <c r="AA12">
+        <v>-2049000</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>-100000000</v>
+      </c>
+      <c r="AD12">
+        <v>-46866000</v>
+      </c>
+      <c r="AE12">
+        <v>133645000</v>
+      </c>
+      <c r="AF12">
+        <v>-15270000</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>64910000</v>
+      </c>
+      <c r="AI12">
+        <v>732786000</v>
+      </c>
+      <c r="AJ12">
+        <v>667876000</v>
+      </c>
+      <c r="AK12">
+        <v>824172000</v>
+      </c>
+      <c r="AL12">
+        <v>-183309000</v>
+      </c>
+      <c r="AM12">
+        <v>640863000</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2">
+        <v>41665</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13">
+        <v>439990000</v>
+      </c>
+      <c r="K13">
+        <v>239148000</v>
+      </c>
+      <c r="L13">
+        <v>15430000</v>
+      </c>
+      <c r="M13">
+        <v>136295000</v>
+      </c>
+      <c r="N13">
+        <v>12237000</v>
+      </c>
+      <c r="O13">
+        <v>28852000</v>
+      </c>
+      <c r="P13">
+        <v>24651000</v>
+      </c>
+      <c r="Q13">
+        <v>-20382000</v>
+      </c>
+      <c r="R13">
+        <v>4823000</v>
+      </c>
+      <c r="S13">
+        <v>-7954000</v>
+      </c>
+      <c r="T13">
+        <v>835146000</v>
+      </c>
+      <c r="U13">
+        <v>-255186000</v>
+      </c>
+      <c r="V13">
+        <v>-17145000</v>
+      </c>
+      <c r="W13">
+        <v>-3065404000</v>
+      </c>
+      <c r="X13">
+        <v>2511967000</v>
+      </c>
+      <c r="Y13">
+        <v>19831000</v>
+      </c>
+      <c r="Z13">
+        <v>-805937000</v>
+      </c>
+      <c r="AA13">
+        <v>-2239000</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>-887304000</v>
+      </c>
+      <c r="AD13">
+        <v>-181336000</v>
+      </c>
+      <c r="AE13">
+        <v>1460471000</v>
+      </c>
+      <c r="AF13">
+        <v>389592000</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>418801000</v>
+      </c>
+      <c r="AI13">
+        <v>1151587000</v>
+      </c>
+      <c r="AJ13">
+        <v>732786000</v>
+      </c>
+      <c r="AK13">
+        <v>835146000</v>
+      </c>
+      <c r="AL13">
+        <v>-255186000</v>
+      </c>
+      <c r="AM13">
+        <v>579960000</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42029</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14">
+        <v>630587000</v>
+      </c>
+      <c r="K14">
+        <v>220125000</v>
+      </c>
+      <c r="L14">
+        <v>82569000</v>
+      </c>
+      <c r="M14">
+        <v>157841000</v>
+      </c>
+      <c r="N14">
+        <v>-202527000</v>
+      </c>
+      <c r="O14">
+        <v>-49324000</v>
+      </c>
+      <c r="P14">
+        <v>-94984000</v>
+      </c>
+      <c r="Q14">
+        <v>-26895000</v>
+      </c>
+      <c r="R14">
+        <v>-41073000</v>
+      </c>
+      <c r="S14">
+        <v>17061000</v>
+      </c>
+      <c r="T14">
+        <v>905656000</v>
+      </c>
+      <c r="U14">
+        <v>-122381000</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>-2861809000</v>
+      </c>
+      <c r="X14">
+        <v>2236780000</v>
+      </c>
+      <c r="Y14">
+        <v>20362000</v>
+      </c>
+      <c r="Z14">
+        <v>-727048000</v>
+      </c>
+      <c r="AA14">
+        <v>-2917000</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>-813600000</v>
+      </c>
+      <c r="AD14">
+        <v>-186452000</v>
+      </c>
+      <c r="AE14">
+        <v>169428000</v>
+      </c>
+      <c r="AF14">
+        <v>-833541000</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>-654933000</v>
+      </c>
+      <c r="AI14">
+        <v>496654000</v>
+      </c>
+      <c r="AJ14">
+        <v>1151587000</v>
+      </c>
+      <c r="AK14">
+        <v>905656000</v>
+      </c>
+      <c r="AL14">
+        <v>-122381000</v>
+      </c>
+      <c r="AM14">
+        <v>783275000</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15">
+        <v>614000000</v>
+      </c>
+      <c r="K15">
+        <v>197000000</v>
+      </c>
+      <c r="L15">
+        <v>134000000</v>
+      </c>
+      <c r="M15">
+        <v>204000000</v>
+      </c>
+      <c r="N15">
+        <v>-51000000</v>
+      </c>
+      <c r="O15">
+        <v>-32000000</v>
+      </c>
+      <c r="P15">
+        <v>66000000</v>
+      </c>
+      <c r="Q15">
+        <v>-11000000</v>
+      </c>
+      <c r="R15">
+        <v>-97000000</v>
+      </c>
+      <c r="S15">
+        <v>77000000</v>
+      </c>
+      <c r="T15">
+        <v>1175000000</v>
+      </c>
+      <c r="U15">
+        <v>-86000000</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>-3477000000</v>
+      </c>
+      <c r="X15">
+        <v>3138000000</v>
+      </c>
+      <c r="Y15">
+        <v>25000000</v>
+      </c>
+      <c r="Z15">
+        <v>-400000000</v>
+      </c>
+      <c r="AA15">
+        <v>-3000000</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>-587000000</v>
+      </c>
+      <c r="AD15">
+        <v>-213000000</v>
+      </c>
+      <c r="AE15">
+        <v>127000000</v>
+      </c>
+      <c r="AF15">
+        <v>-676000000</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>99000000</v>
+      </c>
+      <c r="AI15">
+        <v>596000000</v>
+      </c>
+      <c r="AJ15">
+        <v>497000000</v>
+      </c>
+      <c r="AK15">
+        <v>1175000000</v>
+      </c>
+      <c r="AL15">
+        <v>-86000000</v>
+      </c>
+      <c r="AM15">
+        <v>1089000000</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42764</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16">
+        <v>1666000000</v>
+      </c>
+      <c r="K16">
+        <v>187000000</v>
+      </c>
+      <c r="L16">
+        <v>197000000</v>
+      </c>
+      <c r="M16">
+        <v>247000000</v>
+      </c>
+      <c r="N16">
+        <v>-679000000</v>
+      </c>
+      <c r="O16">
+        <v>-321000000</v>
+      </c>
+      <c r="P16">
+        <v>-375000000</v>
+      </c>
+      <c r="Q16">
+        <v>184000000</v>
+      </c>
+      <c r="R16">
+        <v>-14000000</v>
+      </c>
+      <c r="S16">
+        <v>54000000</v>
+      </c>
+      <c r="T16">
+        <v>1672000000</v>
+      </c>
+      <c r="U16">
+        <v>-176000000</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>-3134000000</v>
+      </c>
+      <c r="X16">
+        <v>2515000000</v>
+      </c>
+      <c r="Y16">
+        <v>2000000</v>
+      </c>
+      <c r="Z16">
+        <v>-793000000</v>
+      </c>
+      <c r="AA16">
+        <v>-673000000</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>-739000000</v>
+      </c>
+      <c r="AD16">
+        <v>-261000000</v>
+      </c>
+      <c r="AE16">
+        <v>1964000000</v>
+      </c>
+      <c r="AF16">
+        <v>291000000</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>1170000000</v>
+      </c>
+      <c r="AI16">
+        <v>1766000000</v>
+      </c>
+      <c r="AJ16">
+        <v>596000000</v>
+      </c>
+      <c r="AK16">
+        <v>1672000000</v>
+      </c>
+      <c r="AL16">
+        <v>-176000000</v>
+      </c>
+      <c r="AM16">
+        <v>1496000000</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17">
+        <v>3047000000</v>
+      </c>
+      <c r="K17">
+        <v>199000000</v>
+      </c>
+      <c r="L17">
+        <v>-359000000</v>
+      </c>
+      <c r="M17">
+        <v>391000000</v>
+      </c>
+      <c r="N17">
+        <v>185000000</v>
+      </c>
+      <c r="O17">
+        <v>-440000000</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>90000000</v>
+      </c>
+      <c r="R17">
+        <v>481000000</v>
+      </c>
+      <c r="S17">
+        <v>39000000</v>
+      </c>
+      <c r="T17">
+        <v>3502000000</v>
+      </c>
+      <c r="U17">
+        <v>-593000000</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>-72000000</v>
+      </c>
+      <c r="X17">
+        <v>1941000000</v>
+      </c>
+      <c r="Y17">
+        <v>2000000</v>
+      </c>
+      <c r="Z17">
+        <v>1278000000</v>
+      </c>
+      <c r="AA17">
+        <v>-812000000</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>-909000000</v>
+      </c>
+      <c r="AD17">
+        <v>-341000000</v>
+      </c>
+      <c r="AE17">
+        <v>-482000000</v>
+      </c>
+      <c r="AF17">
+        <v>-2544000000</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>2236000000</v>
+      </c>
+      <c r="AI17">
+        <v>4002000000</v>
+      </c>
+      <c r="AJ17">
+        <v>1766000000</v>
+      </c>
+      <c r="AK17">
+        <v>3502000000</v>
+      </c>
+      <c r="AL17">
+        <v>-593000000</v>
+      </c>
+      <c r="AM17">
+        <v>2909000000</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43492</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18">
+        <v>4141000000</v>
+      </c>
+      <c r="K18">
+        <v>262000000</v>
+      </c>
+      <c r="L18">
+        <v>-315000000</v>
+      </c>
+      <c r="M18">
+        <v>557000000</v>
+      </c>
+      <c r="N18">
+        <v>-857000000</v>
+      </c>
+      <c r="O18">
+        <v>-149000000</v>
+      </c>
+      <c r="P18">
+        <v>-776000000</v>
+      </c>
+      <c r="Q18">
+        <v>-135000000</v>
+      </c>
+      <c r="R18">
+        <v>2000000</v>
+      </c>
+      <c r="S18">
+        <v>-45000000</v>
+      </c>
+      <c r="T18">
+        <v>3743000000</v>
+      </c>
+      <c r="U18">
+        <v>-600000000</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>-11157000000</v>
+      </c>
+      <c r="X18">
+        <v>7660000000</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>-4097000000</v>
+      </c>
+      <c r="AA18">
+        <v>-16000000</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>-1579000000</v>
+      </c>
+      <c r="AD18">
+        <v>-371000000</v>
+      </c>
+      <c r="AE18">
+        <v>-900000000</v>
+      </c>
+      <c r="AF18">
+        <v>-2866000000</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>-3220000000</v>
+      </c>
+      <c r="AI18">
+        <v>782000000</v>
+      </c>
+      <c r="AJ18">
+        <v>4002000000</v>
+      </c>
+      <c r="AK18">
+        <v>3743000000</v>
+      </c>
+      <c r="AL18">
+        <v>-600000000</v>
+      </c>
+      <c r="AM18">
+        <v>3143000000</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43856</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19">
+        <v>2796000000</v>
+      </c>
+      <c r="K19">
+        <v>381000000</v>
+      </c>
+      <c r="L19">
+        <v>18000000</v>
+      </c>
+      <c r="M19">
+        <v>844000000</v>
+      </c>
+      <c r="N19">
+        <v>717000000</v>
+      </c>
+      <c r="O19">
+        <v>-233000000</v>
+      </c>
+      <c r="P19">
+        <v>597000000</v>
+      </c>
+      <c r="Q19">
+        <v>194000000</v>
+      </c>
+      <c r="R19">
+        <v>28000000</v>
+      </c>
+      <c r="S19">
+        <v>5000000</v>
+      </c>
+      <c r="T19">
+        <v>4761000000</v>
+      </c>
+      <c r="U19">
+        <v>-489000000</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>-1475000000</v>
+      </c>
+      <c r="X19">
+        <v>8109000000</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>6145000000</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>-390000000</v>
+      </c>
+      <c r="AE19">
+        <v>-402000000</v>
+      </c>
+      <c r="AF19">
+        <v>-792000000</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>10114000000</v>
+      </c>
+      <c r="AI19">
+        <v>10896000000</v>
+      </c>
+      <c r="AJ19">
+        <v>782000000</v>
+      </c>
+      <c r="AK19">
+        <v>4761000000</v>
+      </c>
+      <c r="AL19">
+        <v>-489000000</v>
+      </c>
+      <c r="AM19">
+        <v>4272000000</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20">
+        <v>4332000000</v>
+      </c>
+      <c r="K20">
+        <v>1098000000</v>
+      </c>
+      <c r="L20">
+        <v>-282000000</v>
+      </c>
+      <c r="M20">
+        <v>1397000000</v>
+      </c>
+      <c r="N20">
+        <v>-703000000</v>
+      </c>
+      <c r="O20">
+        <v>-550000000</v>
+      </c>
+      <c r="P20">
+        <v>-524000000</v>
+      </c>
+      <c r="Q20">
+        <v>363000000</v>
+      </c>
+      <c r="R20">
+        <v>163000000</v>
+      </c>
+      <c r="S20">
+        <v>-20000000</v>
+      </c>
+      <c r="T20">
+        <v>5822000000</v>
+      </c>
+      <c r="U20">
+        <v>-1128000000</v>
+      </c>
+      <c r="V20">
+        <v>-8524000000</v>
+      </c>
+      <c r="W20">
+        <v>-19342000000</v>
+      </c>
+      <c r="X20">
+        <v>9319000000</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>-19675000000</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>-395000000</v>
+      </c>
+      <c r="AE20">
+        <v>4199000000</v>
+      </c>
+      <c r="AF20">
+        <v>3804000000</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>-10049000000</v>
+      </c>
+      <c r="AI20">
+        <v>847000000</v>
+      </c>
+      <c r="AJ20">
+        <v>10896000000</v>
+      </c>
+      <c r="AK20">
+        <v>5822000000</v>
+      </c>
+      <c r="AL20">
+        <v>-1128000000</v>
+      </c>
+      <c r="AM20">
+        <v>4694000000</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
         <v>44591</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11">
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21">
         <v>9752000000</v>
       </c>
-      <c r="K11">
+      <c r="K21">
         <v>1174000000</v>
       </c>
-      <c r="L11">
+      <c r="L21">
         <v>-406000000</v>
       </c>
-      <c r="M11">
+      <c r="M21">
         <v>2004000000</v>
       </c>
-      <c r="N11">
+      <c r="N21">
         <v>-3363000000</v>
       </c>
-      <c r="O11">
+      <c r="O21">
         <v>-2215000000</v>
       </c>
-      <c r="P11">
+      <c r="P21">
         <v>-774000000</v>
       </c>
-      <c r="Q11">
+      <c r="Q21">
         <v>568000000</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>-53000000</v>
       </c>
-      <c r="T11">
+      <c r="T21">
         <v>9108000000</v>
       </c>
-      <c r="U11">
+      <c r="U21">
         <v>-976000000</v>
       </c>
-      <c r="V11">
+      <c r="V21">
         <v>-263000000</v>
       </c>
-      <c r="W11">
+      <c r="W21">
         <v>-24811000000</v>
       </c>
-      <c r="X11">
+      <c r="X21">
         <v>16220000000</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>-9830000000</v>
       </c>
-      <c r="AA11">
+      <c r="AA21">
         <v>-1000000000</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>-399000000</v>
       </c>
-      <c r="AE11">
+      <c r="AE21">
         <v>3264000000</v>
       </c>
-      <c r="AF11">
+      <c r="AF21">
         <v>1865000000</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>1143000000</v>
       </c>
-      <c r="AI11">
+      <c r="AI21">
         <v>1990000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ21">
         <v>847000000</v>
       </c>
-      <c r="AK11">
+      <c r="AK21">
         <v>9108000000</v>
       </c>
-      <c r="AL11">
+      <c r="AL21">
         <v>-976000000</v>
       </c>
-      <c r="AM11">
+      <c r="AM21">
         <v>8132000000</v>
       </c>
-      <c r="AN11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>102</v>
+      <c r="AN21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AN2" r:id="rId1"/>
     <hyperlink ref="AO2" r:id="rId2"/>
-    <hyperlink ref="AN3" r:id="rId3"/>
-    <hyperlink ref="AO3" r:id="rId4"/>
-    <hyperlink ref="AN4" r:id="rId5"/>
-    <hyperlink ref="AO4" r:id="rId6"/>
-    <hyperlink ref="AN5" r:id="rId7"/>
-    <hyperlink ref="AO5" r:id="rId8"/>
-    <hyperlink ref="AN6" r:id="rId9"/>
-    <hyperlink ref="AO6" r:id="rId10"/>
-    <hyperlink ref="AN7" r:id="rId11"/>
-    <hyperlink ref="AO7" r:id="rId12"/>
-    <hyperlink ref="AN8" r:id="rId13"/>
-    <hyperlink ref="AO8" r:id="rId14"/>
-    <hyperlink ref="AN9" r:id="rId15"/>
-    <hyperlink ref="AO9" r:id="rId16"/>
-    <hyperlink ref="AN10" r:id="rId17"/>
-    <hyperlink ref="AO10" r:id="rId18"/>
-    <hyperlink ref="AN11" r:id="rId19"/>
-    <hyperlink ref="AO11" r:id="rId20"/>
+    <hyperlink ref="AN4" r:id="rId3"/>
+    <hyperlink ref="AO4" r:id="rId4"/>
+    <hyperlink ref="AN5" r:id="rId5"/>
+    <hyperlink ref="AO5" r:id="rId6"/>
+    <hyperlink ref="AN6" r:id="rId7"/>
+    <hyperlink ref="AO6" r:id="rId8"/>
+    <hyperlink ref="AN9" r:id="rId9"/>
+    <hyperlink ref="AO9" r:id="rId10"/>
+    <hyperlink ref="AN10" r:id="rId11"/>
+    <hyperlink ref="AO10" r:id="rId12"/>
+    <hyperlink ref="AN11" r:id="rId13"/>
+    <hyperlink ref="AO11" r:id="rId14"/>
+    <hyperlink ref="AN12" r:id="rId15"/>
+    <hyperlink ref="AO12" r:id="rId16"/>
+    <hyperlink ref="AN13" r:id="rId17"/>
+    <hyperlink ref="AO13" r:id="rId18"/>
+    <hyperlink ref="AN14" r:id="rId19"/>
+    <hyperlink ref="AO14" r:id="rId20"/>
+    <hyperlink ref="AN15" r:id="rId21"/>
+    <hyperlink ref="AO15" r:id="rId22"/>
+    <hyperlink ref="AN16" r:id="rId23"/>
+    <hyperlink ref="AO16" r:id="rId24"/>
+    <hyperlink ref="AN17" r:id="rId25"/>
+    <hyperlink ref="AO17" r:id="rId26"/>
+    <hyperlink ref="AN18" r:id="rId27"/>
+    <hyperlink ref="AO18" r:id="rId28"/>
+    <hyperlink ref="AN19" r:id="rId29"/>
+    <hyperlink ref="AO19" r:id="rId30"/>
+    <hyperlink ref="AN20" r:id="rId31"/>
+    <hyperlink ref="AO20" r:id="rId32"/>
+    <hyperlink ref="AN21" r:id="rId33"/>
+    <hyperlink ref="AO21" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
